--- a/sf-excel/src/test/java/cn/sf/excel/common/writer-test.xlsx
+++ b/sf-excel/src/test/java/cn/sf/excel/common/writer-test.xlsx
@@ -30,16 +30,16 @@
     <t>Double</t>
   </si>
   <si>
+    <t>日期类型</t>
+  </si>
+  <si>
     <t>萨芬发放萨法俄啊饿疯俄国呃啊飞</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>22.22</t>
+    <t>2017-03-23 10:48:28</t>
+  </si>
+  <si>
+    <t>2017-03-23</t>
   </si>
   <si>
     <t>萨芬</t>
@@ -49,7 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode=" #,##0.00 "/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -79,8 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -106,18 +112,30 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n" s="1">
+        <v>22.22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -125,13 +143,19 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -161,18 +185,30 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -180,13 +216,19 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="4">
+        <v>22.22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/sf-excel/src/test/java/cn/sf/excel/common/writer-test.xlsx
+++ b/sf-excel/src/test/java/cn/sf/excel/common/writer-test.xlsx
@@ -36,7 +36,7 @@
     <t>萨芬发放萨法俄啊饿疯俄国呃啊飞</t>
   </si>
   <si>
-    <t>2017-03-23 10:48:28</t>
+    <t>2017-03-23 18:12:10</t>
   </si>
   <si>
     <t>2017-03-23</t>

--- a/sf-excel/src/test/java/cn/sf/excel/common/writer-test.xlsx
+++ b/sf-excel/src/test/java/cn/sf/excel/common/writer-test.xlsx
@@ -36,10 +36,10 @@
     <t>萨芬发放萨法俄啊饿疯俄国呃啊飞</t>
   </si>
   <si>
-    <t>2017-03-23 18:12:10</t>
-  </si>
-  <si>
-    <t>2017-03-23</t>
+    <t>2017-03-24 17:47:20</t>
+  </si>
+  <si>
+    <t>2017-03-24</t>
   </si>
   <si>
     <t>萨芬</t>
